--- a/CR - Cost Report/BOM/EL/ELA0100_to_ELA0700 v2.xlsx
+++ b/CR - Cost Report/BOM/EL/ELA0100_to_ELA0700 v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romain\Documents\STUF2019\CR - Cost Report\BOM\EL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B726FF1-8A30-4E75-A8D4-CDAE0427095A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2393D3-3BD2-4FB1-8DCF-7BDAD01786CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9360" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="240">
   <si>
     <t>System</t>
   </si>
@@ -405,9 +405,6 @@
     <t>Battery support</t>
   </si>
   <si>
-    <t>on the rear rigth side</t>
-  </si>
-  <si>
     <t>EL_04001</t>
   </si>
   <si>
@@ -615,12 +612,6 @@
     <t>EL_07004</t>
   </si>
   <si>
-    <t>servo motor support</t>
-  </si>
-  <si>
-    <t>support the servo motor assembly</t>
-  </si>
-  <si>
     <t>EL_07005</t>
   </si>
   <si>
@@ -739,6 +730,24 @@
   </si>
   <si>
     <t xml:space="preserve">connector front board </t>
+  </si>
+  <si>
+    <t>on the rear right side</t>
+  </si>
+  <si>
+    <t>servo motor support 1</t>
+  </si>
+  <si>
+    <t>servo motor support 2</t>
+  </si>
+  <si>
+    <t>EL_07007</t>
+  </si>
+  <si>
+    <t>support the servo motor assembly 1</t>
+  </si>
+  <si>
+    <t>support the servo motor assembly 2</t>
   </si>
 </sst>
 </file>
@@ -1188,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1663,7 +1672,7 @@
         <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -1708,7 +1717,7 @@
         <v>17</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
@@ -1731,7 +1740,7 @@
         <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
@@ -1754,7 +1763,7 @@
         <v>17</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
@@ -1771,7 +1780,7 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>17</v>
@@ -1794,7 +1803,7 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>17</v>
@@ -1846,7 +1855,7 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>17</v>
@@ -1861,14 +1870,14 @@
         <v>89</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="39.75" thickBot="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>17</v>
@@ -1883,14 +1892,14 @@
         <v>91</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="39.75" thickBot="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>17</v>
@@ -1905,14 +1914,14 @@
         <v>92</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="39.75" thickBot="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>17</v>
@@ -1924,17 +1933,17 @@
         <v>1</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="39.75" thickBot="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>17</v>
@@ -1946,10 +1955,10 @@
         <v>1</v>
       </c>
       <c r="G34" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="63.75" thickBot="1">
@@ -1987,7 +1996,7 @@
         <v>97</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="51.75">
@@ -2016,7 +2025,7 @@
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>17</v>
@@ -2041,7 +2050,7 @@
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>17</v>
@@ -2066,7 +2075,7 @@
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>17</v>
@@ -2091,7 +2100,7 @@
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>17</v>
@@ -2144,7 +2153,7 @@
         <v>17</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F43" s="3">
         <v>1</v>
@@ -2160,13 +2169,13 @@
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F44" s="3">
         <v>1</v>
@@ -2204,19 +2213,19 @@
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>15</v>
@@ -2226,7 +2235,7 @@
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>17</v>
@@ -2238,7 +2247,7 @@
         <v>2</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>15</v>
@@ -2248,7 +2257,7 @@
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>17</v>
@@ -2260,7 +2269,7 @@
         <v>4</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>15</v>
@@ -2270,7 +2279,7 @@
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>17</v>
@@ -2280,17 +2289,17 @@
         <v>1</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="27" thickBot="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>17</v>
@@ -2302,10 +2311,10 @@
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="32.25" thickBot="1">
@@ -2334,13 +2343,13 @@
         <v>12</v>
       </c>
       <c r="E52" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>15</v>
@@ -2356,13 +2365,13 @@
         <v>17</v>
       </c>
       <c r="E53" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="F53" s="3">
-        <v>1</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>15</v>
@@ -2372,19 +2381,19 @@
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F54" s="3">
         <v>2</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>15</v>
@@ -2394,19 +2403,19 @@
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>15</v>
@@ -2416,19 +2425,19 @@
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>15</v>
@@ -2438,19 +2447,19 @@
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F57" s="3">
         <v>1</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>15</v>
@@ -2460,19 +2469,19 @@
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F58" s="3">
         <v>1</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>15</v>
@@ -2482,19 +2491,19 @@
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>15</v>
@@ -2505,14 +2514,14 @@
         <v>8</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H60" s="2"/>
     </row>
@@ -2520,19 +2529,19 @@
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="3" t="s">
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>15</v>
@@ -2542,19 +2551,19 @@
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62" s="3" t="s">
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>15</v>
@@ -2564,19 +2573,19 @@
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F63" s="3">
         <v>2</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>15</v>
@@ -2586,19 +2595,19 @@
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="F64" s="3">
-        <v>1</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>15</v>
@@ -2608,19 +2617,19 @@
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F65" s="3">
-        <v>1</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>15</v>
@@ -2630,19 +2639,19 @@
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F66" s="3">
         <v>2</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>15</v>
@@ -2652,19 +2661,19 @@
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="3" t="s">
+      <c r="F67" s="3">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="F67" s="3">
-        <v>1</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>15</v>
@@ -2674,19 +2683,19 @@
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="F68" s="3">
         <v>4</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>15</v>
@@ -2697,14 +2706,14 @@
         <v>8</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H69" s="2"/>
     </row>
@@ -2712,19 +2721,19 @@
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="F70" s="3">
         <v>2</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>15</v>
@@ -2734,19 +2743,19 @@
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="F71" s="3">
         <v>2</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>15</v>
@@ -2756,19 +2765,19 @@
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E72" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="F72" s="3">
-        <v>1</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>15</v>
@@ -2778,19 +2787,19 @@
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F73" s="3">
-        <v>1</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>15</v>
@@ -2800,7 +2809,7 @@
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>17</v>
@@ -2810,7 +2819,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>15</v>
@@ -2821,14 +2830,14 @@
         <v>8</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H75" s="2"/>
     </row>
@@ -2836,7 +2845,7 @@
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>17</v>
@@ -2848,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>15</v>
@@ -2858,19 +2867,19 @@
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E77" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="F77" s="3">
-        <v>1</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>15</v>
@@ -2880,19 +2889,19 @@
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="3" t="s">
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="F78" s="3">
-        <v>1</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>15</v>
@@ -2902,65 +2911,87 @@
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="3" t="s">
+      <c r="F79" s="3">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F79" s="3">
-        <v>1</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="H79" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="39">
+    <row r="80" spans="1:8" ht="39.75" thickBot="1">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="F80" s="3">
         <v>1</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="39">
+    <row r="81" spans="1:8" ht="39.75" thickBot="1">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="F81" s="3">
         <v>1</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H81" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="39.75" thickBot="1">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F82" s="3">
+        <v>1</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H82" s="3" t="s">
         <v>15</v>
       </c>
     </row>
